--- a/metadata_files/06_metadata_phenology/01_WORKING_monthly_datatypes/Northern Royal Albatross_Chatham Island.xlsx
+++ b/metadata_files/06_metadata_phenology/01_WORKING_monthly_datatypes/Northern Royal Albatross_Chatham Island.xlsx
@@ -3693,13 +3693,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CEF859C9-C821-4A42-A7C7-0E47F8CD072A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7AA3B911-DB2C-4BE9-8898-47CE1E3462E4}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0298F5BC-331F-4E89-B096-DAADBE77ECEB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6937EDF2-DD49-4B65-A9B0-24E6FDB4D5D0}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B32D33F-271F-4E5A-AA2E-743C730DBA50}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6F89260-9CE5-4003-A04D-5249A2A3AA5D}"/>
 </file>